--- a/exercises/1.44-smoothing.xlsx
+++ b/exercises/1.44-smoothing.xlsx
@@ -12,7 +12,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="16180" windowHeight="8300"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="dx=5" sheetId="1" r:id="rId1"/>
+    <sheet name="dx=1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -21,6 +22,19 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="2">
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -100,6 +114,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>平滑化なし</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -153,7 +192,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$102</c:f>
+              <c:f>'dx=5'!$A$2:$A$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
@@ -465,7 +504,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$102</c:f>
+              <c:f>'dx=5'!$B$2:$B$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
@@ -785,11 +824,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="512021056"/>
-        <c:axId val="512019096"/>
+        <c:axId val="183920088"/>
+        <c:axId val="183920872"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="512021056"/>
+        <c:axId val="183920088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -847,13 +886,13 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="512019096"/>
+        <c:crossAx val="183920872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:minorUnit val="5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="512019096"/>
+        <c:axId val="183920872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -910,7 +949,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="512021056"/>
+        <c:crossAx val="183920088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -974,6 +1013,40 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>1</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>重平滑化</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>(dx=5)</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -1027,7 +1100,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$I$2:$I$102</c:f>
+              <c:f>'dx=5'!$I$2:$I$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
@@ -1339,7 +1412,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$J$2:$J$102</c:f>
+              <c:f>'dx=5'!$J$2:$J$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
@@ -1659,11 +1732,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="512021840"/>
-        <c:axId val="512018704"/>
+        <c:axId val="183932240"/>
+        <c:axId val="183929496"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="512021840"/>
+        <c:axId val="183932240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -1721,13 +1794,13 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="512018704"/>
+        <c:crossAx val="183929496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:minorUnit val="5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="512018704"/>
+        <c:axId val="183929496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1784,7 +1857,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="512021840"/>
+        <c:crossAx val="183932240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1848,6 +1921,62 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>5</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="ja-JP" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>重平滑化</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>(dx=5)</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -1861,13 +1990,27 @@
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:sysClr val="windowText" lastClr="000000">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
-                </a:schemeClr>
+                </a:sysClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -1901,7 +2044,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$Q$2:$Q$102</c:f>
+              <c:f>'dx=5'!$Q$2:$Q$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
@@ -2213,7 +2356,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$R$2:$R$102</c:f>
+              <c:f>'dx=5'!$R$2:$R$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
@@ -2533,11 +2676,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="522764248"/>
-        <c:axId val="522763072"/>
+        <c:axId val="183929888"/>
+        <c:axId val="183930280"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="522764248"/>
+        <c:axId val="183929888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -2595,13 +2738,13 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="522763072"/>
+        <c:crossAx val="183930280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:minorUnit val="5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="522763072"/>
+        <c:axId val="183930280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2658,7 +2801,2758 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="522764248"/>
+        <c:crossAx val="183929888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>平滑化なし</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'dx=1'!$A$2:$A$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'dx=1'!$B$2:$B$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="566424272"/>
+        <c:axId val="566425056"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="566424272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="566425056"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:minorUnit val="5"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="566425056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="566424272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>1</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>重平滑化</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>(dx=1)</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'dx=1'!$I$2:$I$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'dx=1'!$J$2:$J$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.6666666666666601</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>98.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>98.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.6666666666666601</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="570150960"/>
+        <c:axId val="570159192"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="570150960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="570159192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:minorUnit val="5"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="570159192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="570150960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>5</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="ja-JP" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>重平滑化</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>(dx=1)</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'dx=1'!$Q$2:$Q$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'dx=1'!$R$2:$R$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.1728395061728399E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.37037037037037002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.2962962962962901</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.2098765432098699</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.2962962962962896</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>10.370370370370299</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>15.061728395061699</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>84.938271604938194</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>89.629629629629605</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>93.703703703703695</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>96.790123456790099</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>98.703703703703695</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>99.629629629629605</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>99.938271604938194</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>99.938271604938194</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>99.629629629629605</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>98.703703703703695</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>96.790123456790099</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>93.703703703703695</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>89.629629629629605</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>84.938271604938194</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>15.061728395061699</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>10.370370370370299</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>6.2962962962962896</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>3.2098765432098699</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.2962962962962901</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.37037037037037002</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>6.1728395061728399E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="570156840"/>
+        <c:axId val="570151352"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="570156840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="570151352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:minorUnit val="5"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="570151352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="570156840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2827,6 +5721,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3860,6 +6874,1554 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4457,6 +9019,107 @@
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="7" name="グラフ 6"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="グラフ 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="グラフ 3"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -4739,14 +9402,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:R102"/>
+  <dimension ref="A1:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X27" sqref="X27"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R1" t="s">
+        <v>1</v>
+      </c>
+    </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
@@ -6764,6 +11447,2069 @@
         <v>100</v>
       </c>
       <c r="R102">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R103"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U27" sqref="U27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>2</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>3</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>4</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>4</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>5</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>5</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>6</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>6</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>7</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>7</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>8</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>8</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>9</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>9</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>10</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>10</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>11</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>11</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>12</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>12</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>13</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>13</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>14</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>14</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>15</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>15</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>16</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>16</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>17</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>17</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>18</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>18</v>
+      </c>
+      <c r="R20">
+        <v>6.1728395061728399E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>19</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>19</v>
+      </c>
+      <c r="R21">
+        <v>0.37037037037037002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>20</v>
+      </c>
+      <c r="J22">
+        <v>1.6666666666666601</v>
+      </c>
+      <c r="Q22">
+        <v>20</v>
+      </c>
+      <c r="R22">
+        <v>1.2962962962962901</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>5</v>
+      </c>
+      <c r="I23">
+        <v>21</v>
+      </c>
+      <c r="J23">
+        <v>5</v>
+      </c>
+      <c r="Q23">
+        <v>21</v>
+      </c>
+      <c r="R23">
+        <v>3.2098765432098699</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>10</v>
+      </c>
+      <c r="I24">
+        <v>22</v>
+      </c>
+      <c r="J24">
+        <v>10</v>
+      </c>
+      <c r="Q24">
+        <v>22</v>
+      </c>
+      <c r="R24">
+        <v>6.2962962962962896</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>15</v>
+      </c>
+      <c r="I25">
+        <v>23</v>
+      </c>
+      <c r="J25">
+        <v>15</v>
+      </c>
+      <c r="Q25">
+        <v>23</v>
+      </c>
+      <c r="R25">
+        <v>10.370370370370299</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>20</v>
+      </c>
+      <c r="I26">
+        <v>24</v>
+      </c>
+      <c r="J26">
+        <v>20</v>
+      </c>
+      <c r="Q26">
+        <v>24</v>
+      </c>
+      <c r="R26">
+        <v>15.061728395061699</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>25</v>
+      </c>
+      <c r="I27">
+        <v>25</v>
+      </c>
+      <c r="J27">
+        <v>25</v>
+      </c>
+      <c r="Q27">
+        <v>25</v>
+      </c>
+      <c r="R27">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>30</v>
+      </c>
+      <c r="I28">
+        <v>26</v>
+      </c>
+      <c r="J28">
+        <v>30</v>
+      </c>
+      <c r="Q28">
+        <v>26</v>
+      </c>
+      <c r="R28">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>35</v>
+      </c>
+      <c r="I29">
+        <v>27</v>
+      </c>
+      <c r="J29">
+        <v>35</v>
+      </c>
+      <c r="Q29">
+        <v>27</v>
+      </c>
+      <c r="R29">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>40</v>
+      </c>
+      <c r="I30">
+        <v>28</v>
+      </c>
+      <c r="J30">
+        <v>40</v>
+      </c>
+      <c r="Q30">
+        <v>28</v>
+      </c>
+      <c r="R30">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>45</v>
+      </c>
+      <c r="I31">
+        <v>29</v>
+      </c>
+      <c r="J31">
+        <v>45</v>
+      </c>
+      <c r="Q31">
+        <v>29</v>
+      </c>
+      <c r="R31">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>50</v>
+      </c>
+      <c r="I32">
+        <v>30</v>
+      </c>
+      <c r="J32">
+        <v>50</v>
+      </c>
+      <c r="Q32">
+        <v>30</v>
+      </c>
+      <c r="R32">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>55</v>
+      </c>
+      <c r="I33">
+        <v>31</v>
+      </c>
+      <c r="J33">
+        <v>55</v>
+      </c>
+      <c r="Q33">
+        <v>31</v>
+      </c>
+      <c r="R33">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>60</v>
+      </c>
+      <c r="I34">
+        <v>32</v>
+      </c>
+      <c r="J34">
+        <v>60</v>
+      </c>
+      <c r="Q34">
+        <v>32</v>
+      </c>
+      <c r="R34">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>65</v>
+      </c>
+      <c r="I35">
+        <v>33</v>
+      </c>
+      <c r="J35">
+        <v>65</v>
+      </c>
+      <c r="Q35">
+        <v>33</v>
+      </c>
+      <c r="R35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>70</v>
+      </c>
+      <c r="I36">
+        <v>34</v>
+      </c>
+      <c r="J36">
+        <v>70</v>
+      </c>
+      <c r="Q36">
+        <v>34</v>
+      </c>
+      <c r="R36">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>75</v>
+      </c>
+      <c r="I37">
+        <v>35</v>
+      </c>
+      <c r="J37">
+        <v>75</v>
+      </c>
+      <c r="Q37">
+        <v>35</v>
+      </c>
+      <c r="R37">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>80</v>
+      </c>
+      <c r="I38">
+        <v>36</v>
+      </c>
+      <c r="J38">
+        <v>80</v>
+      </c>
+      <c r="Q38">
+        <v>36</v>
+      </c>
+      <c r="R38">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>85</v>
+      </c>
+      <c r="I39">
+        <v>37</v>
+      </c>
+      <c r="J39">
+        <v>85</v>
+      </c>
+      <c r="Q39">
+        <v>37</v>
+      </c>
+      <c r="R39">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>90</v>
+      </c>
+      <c r="I40">
+        <v>38</v>
+      </c>
+      <c r="J40">
+        <v>90</v>
+      </c>
+      <c r="Q40">
+        <v>38</v>
+      </c>
+      <c r="R40">
+        <v>84.938271604938194</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>95</v>
+      </c>
+      <c r="I41">
+        <v>39</v>
+      </c>
+      <c r="J41">
+        <v>95</v>
+      </c>
+      <c r="Q41">
+        <v>39</v>
+      </c>
+      <c r="R41">
+        <v>89.629629629629605</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>100</v>
+      </c>
+      <c r="I42">
+        <v>40</v>
+      </c>
+      <c r="J42">
+        <v>98.3333333333333</v>
+      </c>
+      <c r="Q42">
+        <v>40</v>
+      </c>
+      <c r="R42">
+        <v>93.703703703703695</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>100</v>
+      </c>
+      <c r="I43">
+        <v>41</v>
+      </c>
+      <c r="J43">
+        <v>100</v>
+      </c>
+      <c r="Q43">
+        <v>41</v>
+      </c>
+      <c r="R43">
+        <v>96.790123456790099</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>100</v>
+      </c>
+      <c r="I44">
+        <v>42</v>
+      </c>
+      <c r="J44">
+        <v>100</v>
+      </c>
+      <c r="Q44">
+        <v>42</v>
+      </c>
+      <c r="R44">
+        <v>98.703703703703695</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>100</v>
+      </c>
+      <c r="I45">
+        <v>43</v>
+      </c>
+      <c r="J45">
+        <v>100</v>
+      </c>
+      <c r="Q45">
+        <v>43</v>
+      </c>
+      <c r="R45">
+        <v>99.629629629629605</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>100</v>
+      </c>
+      <c r="I46">
+        <v>44</v>
+      </c>
+      <c r="J46">
+        <v>100</v>
+      </c>
+      <c r="Q46">
+        <v>44</v>
+      </c>
+      <c r="R46">
+        <v>99.938271604938194</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>100</v>
+      </c>
+      <c r="I47">
+        <v>45</v>
+      </c>
+      <c r="J47">
+        <v>100</v>
+      </c>
+      <c r="Q47">
+        <v>45</v>
+      </c>
+      <c r="R47">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>100</v>
+      </c>
+      <c r="I48">
+        <v>46</v>
+      </c>
+      <c r="J48">
+        <v>100</v>
+      </c>
+      <c r="Q48">
+        <v>46</v>
+      </c>
+      <c r="R48">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>100</v>
+      </c>
+      <c r="I49">
+        <v>47</v>
+      </c>
+      <c r="J49">
+        <v>100</v>
+      </c>
+      <c r="Q49">
+        <v>47</v>
+      </c>
+      <c r="R49">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>100</v>
+      </c>
+      <c r="I50">
+        <v>48</v>
+      </c>
+      <c r="J50">
+        <v>100</v>
+      </c>
+      <c r="Q50">
+        <v>48</v>
+      </c>
+      <c r="R50">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>100</v>
+      </c>
+      <c r="I51">
+        <v>49</v>
+      </c>
+      <c r="J51">
+        <v>100</v>
+      </c>
+      <c r="Q51">
+        <v>49</v>
+      </c>
+      <c r="R51">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>100</v>
+      </c>
+      <c r="I52">
+        <v>50</v>
+      </c>
+      <c r="J52">
+        <v>100</v>
+      </c>
+      <c r="Q52">
+        <v>50</v>
+      </c>
+      <c r="R52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>100</v>
+      </c>
+      <c r="I53">
+        <v>51</v>
+      </c>
+      <c r="J53">
+        <v>100</v>
+      </c>
+      <c r="Q53">
+        <v>51</v>
+      </c>
+      <c r="R53">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>100</v>
+      </c>
+      <c r="I54">
+        <v>52</v>
+      </c>
+      <c r="J54">
+        <v>100</v>
+      </c>
+      <c r="Q54">
+        <v>52</v>
+      </c>
+      <c r="R54">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>100</v>
+      </c>
+      <c r="I55">
+        <v>53</v>
+      </c>
+      <c r="J55">
+        <v>100</v>
+      </c>
+      <c r="Q55">
+        <v>53</v>
+      </c>
+      <c r="R55">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>100</v>
+      </c>
+      <c r="I56">
+        <v>54</v>
+      </c>
+      <c r="J56">
+        <v>100</v>
+      </c>
+      <c r="Q56">
+        <v>54</v>
+      </c>
+      <c r="R56">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>100</v>
+      </c>
+      <c r="I57">
+        <v>55</v>
+      </c>
+      <c r="J57">
+        <v>100</v>
+      </c>
+      <c r="Q57">
+        <v>55</v>
+      </c>
+      <c r="R57">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>100</v>
+      </c>
+      <c r="I58">
+        <v>56</v>
+      </c>
+      <c r="J58">
+        <v>100</v>
+      </c>
+      <c r="Q58">
+        <v>56</v>
+      </c>
+      <c r="R58">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>100</v>
+      </c>
+      <c r="I59">
+        <v>57</v>
+      </c>
+      <c r="J59">
+        <v>100</v>
+      </c>
+      <c r="Q59">
+        <v>57</v>
+      </c>
+      <c r="R59">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>100</v>
+      </c>
+      <c r="I60">
+        <v>58</v>
+      </c>
+      <c r="J60">
+        <v>100</v>
+      </c>
+      <c r="Q60">
+        <v>58</v>
+      </c>
+      <c r="R60">
+        <v>99.938271604938194</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>100</v>
+      </c>
+      <c r="I61">
+        <v>59</v>
+      </c>
+      <c r="J61">
+        <v>100</v>
+      </c>
+      <c r="Q61">
+        <v>59</v>
+      </c>
+      <c r="R61">
+        <v>99.629629629629605</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>100</v>
+      </c>
+      <c r="I62">
+        <v>60</v>
+      </c>
+      <c r="J62">
+        <v>98.3333333333333</v>
+      </c>
+      <c r="Q62">
+        <v>60</v>
+      </c>
+      <c r="R62">
+        <v>98.703703703703695</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>95</v>
+      </c>
+      <c r="I63">
+        <v>61</v>
+      </c>
+      <c r="J63">
+        <v>95</v>
+      </c>
+      <c r="Q63">
+        <v>61</v>
+      </c>
+      <c r="R63">
+        <v>96.790123456790099</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>90</v>
+      </c>
+      <c r="I64">
+        <v>62</v>
+      </c>
+      <c r="J64">
+        <v>90</v>
+      </c>
+      <c r="Q64">
+        <v>62</v>
+      </c>
+      <c r="R64">
+        <v>93.703703703703695</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>85</v>
+      </c>
+      <c r="I65">
+        <v>63</v>
+      </c>
+      <c r="J65">
+        <v>85</v>
+      </c>
+      <c r="Q65">
+        <v>63</v>
+      </c>
+      <c r="R65">
+        <v>89.629629629629605</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>80</v>
+      </c>
+      <c r="I66">
+        <v>64</v>
+      </c>
+      <c r="J66">
+        <v>80</v>
+      </c>
+      <c r="Q66">
+        <v>64</v>
+      </c>
+      <c r="R66">
+        <v>84.938271604938194</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>75</v>
+      </c>
+      <c r="I67">
+        <v>65</v>
+      </c>
+      <c r="J67">
+        <v>75</v>
+      </c>
+      <c r="Q67">
+        <v>65</v>
+      </c>
+      <c r="R67">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>70</v>
+      </c>
+      <c r="I68">
+        <v>66</v>
+      </c>
+      <c r="J68">
+        <v>70</v>
+      </c>
+      <c r="Q68">
+        <v>66</v>
+      </c>
+      <c r="R68">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <v>65</v>
+      </c>
+      <c r="I69">
+        <v>67</v>
+      </c>
+      <c r="J69">
+        <v>65</v>
+      </c>
+      <c r="Q69">
+        <v>67</v>
+      </c>
+      <c r="R69">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>60</v>
+      </c>
+      <c r="I70">
+        <v>68</v>
+      </c>
+      <c r="J70">
+        <v>60</v>
+      </c>
+      <c r="Q70">
+        <v>68</v>
+      </c>
+      <c r="R70">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>55</v>
+      </c>
+      <c r="I71">
+        <v>69</v>
+      </c>
+      <c r="J71">
+        <v>55</v>
+      </c>
+      <c r="Q71">
+        <v>69</v>
+      </c>
+      <c r="R71">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>50</v>
+      </c>
+      <c r="I72">
+        <v>70</v>
+      </c>
+      <c r="J72">
+        <v>50</v>
+      </c>
+      <c r="Q72">
+        <v>70</v>
+      </c>
+      <c r="R72">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>45</v>
+      </c>
+      <c r="I73">
+        <v>71</v>
+      </c>
+      <c r="J73">
+        <v>45</v>
+      </c>
+      <c r="Q73">
+        <v>71</v>
+      </c>
+      <c r="R73">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <v>40</v>
+      </c>
+      <c r="I74">
+        <v>72</v>
+      </c>
+      <c r="J74">
+        <v>40</v>
+      </c>
+      <c r="Q74">
+        <v>72</v>
+      </c>
+      <c r="R74">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>35</v>
+      </c>
+      <c r="I75">
+        <v>73</v>
+      </c>
+      <c r="J75">
+        <v>35</v>
+      </c>
+      <c r="Q75">
+        <v>73</v>
+      </c>
+      <c r="R75">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <v>30</v>
+      </c>
+      <c r="I76">
+        <v>74</v>
+      </c>
+      <c r="J76">
+        <v>30</v>
+      </c>
+      <c r="Q76">
+        <v>74</v>
+      </c>
+      <c r="R76">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <v>25</v>
+      </c>
+      <c r="I77">
+        <v>75</v>
+      </c>
+      <c r="J77">
+        <v>25</v>
+      </c>
+      <c r="Q77">
+        <v>75</v>
+      </c>
+      <c r="R77">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <v>20</v>
+      </c>
+      <c r="I78">
+        <v>76</v>
+      </c>
+      <c r="J78">
+        <v>20</v>
+      </c>
+      <c r="Q78">
+        <v>76</v>
+      </c>
+      <c r="R78">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <v>15</v>
+      </c>
+      <c r="I79">
+        <v>77</v>
+      </c>
+      <c r="J79">
+        <v>15</v>
+      </c>
+      <c r="Q79">
+        <v>77</v>
+      </c>
+      <c r="R79">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <v>10</v>
+      </c>
+      <c r="I80">
+        <v>78</v>
+      </c>
+      <c r="J80">
+        <v>10</v>
+      </c>
+      <c r="Q80">
+        <v>78</v>
+      </c>
+      <c r="R80">
+        <v>15.061728395061699</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <v>5</v>
+      </c>
+      <c r="I81">
+        <v>79</v>
+      </c>
+      <c r="J81">
+        <v>5</v>
+      </c>
+      <c r="Q81">
+        <v>79</v>
+      </c>
+      <c r="R81">
+        <v>10.370370370370299</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>80</v>
+      </c>
+      <c r="J82">
+        <v>1.6666666666666601</v>
+      </c>
+      <c r="Q82">
+        <v>80</v>
+      </c>
+      <c r="R82">
+        <v>6.2962962962962896</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <v>81</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="Q83">
+        <v>81</v>
+      </c>
+      <c r="R83">
+        <v>3.2098765432098699</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>82</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="Q84">
+        <v>82</v>
+      </c>
+      <c r="R84">
+        <v>1.2962962962962901</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>83</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="Q85">
+        <v>83</v>
+      </c>
+      <c r="R85">
+        <v>0.37037037037037002</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <v>84</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="Q86">
+        <v>84</v>
+      </c>
+      <c r="R86">
+        <v>6.1728395061728399E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <v>85</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="Q87">
+        <v>85</v>
+      </c>
+      <c r="R87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <v>86</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="Q88">
+        <v>86</v>
+      </c>
+      <c r="R88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <v>87</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="Q89">
+        <v>87</v>
+      </c>
+      <c r="R89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <v>88</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="Q90">
+        <v>88</v>
+      </c>
+      <c r="R90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <v>89</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="Q91">
+        <v>89</v>
+      </c>
+      <c r="R91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>90</v>
+      </c>
+      <c r="B92">
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <v>90</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="Q92">
+        <v>90</v>
+      </c>
+      <c r="R92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <v>0</v>
+      </c>
+      <c r="I93">
+        <v>91</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="Q93">
+        <v>91</v>
+      </c>
+      <c r="R93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <v>0</v>
+      </c>
+      <c r="I94">
+        <v>92</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="Q94">
+        <v>92</v>
+      </c>
+      <c r="R94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <v>0</v>
+      </c>
+      <c r="I95">
+        <v>93</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="Q95">
+        <v>93</v>
+      </c>
+      <c r="R95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>94</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="Q96">
+        <v>94</v>
+      </c>
+      <c r="R96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>95</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="Q97">
+        <v>95</v>
+      </c>
+      <c r="R97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>96</v>
+      </c>
+      <c r="B98">
+        <v>0</v>
+      </c>
+      <c r="I98">
+        <v>96</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="Q98">
+        <v>96</v>
+      </c>
+      <c r="R98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>97</v>
+      </c>
+      <c r="B99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>97</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="Q99">
+        <v>97</v>
+      </c>
+      <c r="R99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>98</v>
+      </c>
+      <c r="B100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>98</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="Q100">
+        <v>98</v>
+      </c>
+      <c r="R100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>99</v>
+      </c>
+      <c r="B101">
+        <v>0</v>
+      </c>
+      <c r="I101">
+        <v>99</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="Q101">
+        <v>99</v>
+      </c>
+      <c r="R101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>100</v>
+      </c>
+      <c r="B102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>100</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="Q102">
+        <v>100</v>
+      </c>
+      <c r="R102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R103">
         <v>0</v>
       </c>
     </row>

--- a/exercises/1.44-smoothing.xlsx
+++ b/exercises/1.44-smoothing.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16180" windowHeight="8300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16180" windowHeight="8300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="dx=5" sheetId="1" r:id="rId1"/>
@@ -824,11 +824,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="183920088"/>
-        <c:axId val="183920872"/>
+        <c:axId val="191124136"/>
+        <c:axId val="191124528"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="183920088"/>
+        <c:axId val="191124136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -886,13 +886,13 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="183920872"/>
+        <c:crossAx val="191124528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:minorUnit val="5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="183920872"/>
+        <c:axId val="191124528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -949,7 +949,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="183920088"/>
+        <c:crossAx val="191124136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1732,11 +1732,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="183932240"/>
-        <c:axId val="183929496"/>
+        <c:axId val="191123744"/>
+        <c:axId val="191123352"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="183932240"/>
+        <c:axId val="191123744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -1794,13 +1794,13 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="183929496"/>
+        <c:crossAx val="191123352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:minorUnit val="5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="183929496"/>
+        <c:axId val="191123352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1857,7 +1857,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="183932240"/>
+        <c:crossAx val="191123744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1957,7 +1957,7 @@
               <a:rPr lang="en-US" altLang="ja-JP" sz="1800" b="0" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>5</a:t>
+              <a:t>4</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="ja-JP" altLang="ja-JP" sz="1800" b="0" i="0" baseline="0">
@@ -2676,11 +2676,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="183929888"/>
-        <c:axId val="183930280"/>
+        <c:axId val="576296152"/>
+        <c:axId val="576295760"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="183929888"/>
+        <c:axId val="576296152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -2738,13 +2738,13 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="183930280"/>
+        <c:crossAx val="576295760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:minorUnit val="5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="183930280"/>
+        <c:axId val="576295760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2801,7 +2801,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="183929888"/>
+        <c:crossAx val="576296152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3575,11 +3575,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="566424272"/>
-        <c:axId val="566425056"/>
+        <c:axId val="576297328"/>
+        <c:axId val="576292624"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="566424272"/>
+        <c:axId val="576297328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -3637,13 +3637,13 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="566425056"/>
+        <c:crossAx val="576292624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:minorUnit val="5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="566425056"/>
+        <c:axId val="576292624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3700,7 +3700,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="566424272"/>
+        <c:crossAx val="576297328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4483,11 +4483,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="570150960"/>
-        <c:axId val="570159192"/>
+        <c:axId val="576301248"/>
+        <c:axId val="576291448"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="570150960"/>
+        <c:axId val="576301248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -4545,13 +4545,13 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="570159192"/>
+        <c:crossAx val="576291448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:minorUnit val="5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="570159192"/>
+        <c:axId val="576291448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4608,7 +4608,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="570150960"/>
+        <c:crossAx val="576301248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4708,7 +4708,7 @@
               <a:rPr lang="en-US" altLang="ja-JP" sz="1800" b="0" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>5</a:t>
+              <a:t>4</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="ja-JP" altLang="ja-JP" sz="1800" b="0" i="0" baseline="0">
@@ -5163,88 +5163,88 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>6.1728395061728399E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.1728395061728399E-2</c:v>
+                  <c:v>0.37037037037037002</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.37037037037037002</c:v>
+                  <c:v>1.2962962962962901</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.2962962962962901</c:v>
+                  <c:v>3.2098765432098699</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.2098765432098699</c:v>
+                  <c:v>6.2962962962962896</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>6.2962962962962896</c:v>
+                  <c:v>10.370370370370299</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>10.370370370370299</c:v>
+                  <c:v>15.061728395061699</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>15.061728395061699</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>20</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>25</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>30</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>35</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>40</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>45</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>50</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>55</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>60</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>65</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>70</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>75</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>80</c:v>
+                  <c:v>84.938271604938194</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>84.938271604938194</c:v>
+                  <c:v>89.629629629629605</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>89.629629629629605</c:v>
+                  <c:v>93.703703703703695</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>93.703703703703695</c:v>
+                  <c:v>96.790123456790099</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>96.790123456790099</c:v>
+                  <c:v>98.703703703703695</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>98.703703703703695</c:v>
+                  <c:v>99.629629629629605</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>99.629629629629605</c:v>
+                  <c:v>99.938271604938194</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>99.938271604938194</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>100</c:v>
@@ -5283,88 +5283,88 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>100</c:v>
+                  <c:v>99.938271604938194</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>99.938271604938194</c:v>
+                  <c:v>99.629629629629605</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>99.629629629629605</c:v>
+                  <c:v>98.703703703703695</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>98.703703703703695</c:v>
+                  <c:v>96.790123456790099</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>96.790123456790099</c:v>
+                  <c:v>93.703703703703695</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>93.703703703703695</c:v>
+                  <c:v>89.629629629629605</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>89.629629629629605</c:v>
+                  <c:v>84.938271604938194</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>84.938271604938194</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>80</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>75</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>70</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>65</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>60</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>55</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>50</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>45</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>40</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>35</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>30</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>25</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>20</c:v>
+                  <c:v>15.061728395061699</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>15.061728395061699</c:v>
+                  <c:v>10.370370370370299</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>10.370370370370299</c:v>
+                  <c:v>6.2962962962962896</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>6.2962962962962896</c:v>
+                  <c:v>3.2098765432098699</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>3.2098765432098699</c:v>
+                  <c:v>1.2962962962962901</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1.2962962962962901</c:v>
+                  <c:v>0.37037037037037002</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.37037037037037002</c:v>
+                  <c:v>6.1728395061728399E-2</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>6.1728395061728399E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>0</c:v>
@@ -5427,11 +5427,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="570156840"/>
-        <c:axId val="570151352"/>
+        <c:axId val="576289096"/>
+        <c:axId val="576300856"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="570156840"/>
+        <c:axId val="576289096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -5489,13 +5489,13 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="570151352"/>
+        <c:crossAx val="576300856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:minorUnit val="5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="570151352"/>
+        <c:axId val="576300856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5552,7 +5552,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="570156840"/>
+        <c:crossAx val="576289096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9404,8 +9404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2:R102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -11462,8 +11462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U27" sqref="U27"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -11845,7 +11845,7 @@
         <v>17</v>
       </c>
       <c r="R19">
-        <v>0</v>
+        <v>6.1728395061728399E-2</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
@@ -11865,7 +11865,7 @@
         <v>18</v>
       </c>
       <c r="R20">
-        <v>6.1728395061728399E-2</v>
+        <v>0.37037037037037002</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
@@ -11885,7 +11885,7 @@
         <v>19</v>
       </c>
       <c r="R21">
-        <v>0.37037037037037002</v>
+        <v>1.2962962962962901</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
@@ -11905,7 +11905,7 @@
         <v>20</v>
       </c>
       <c r="R22">
-        <v>1.2962962962962901</v>
+        <v>3.2098765432098699</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
@@ -11925,7 +11925,7 @@
         <v>21</v>
       </c>
       <c r="R23">
-        <v>3.2098765432098699</v>
+        <v>6.2962962962962896</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
@@ -11945,7 +11945,7 @@
         <v>22</v>
       </c>
       <c r="R24">
-        <v>6.2962962962962896</v>
+        <v>10.370370370370299</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
@@ -11965,7 +11965,7 @@
         <v>23</v>
       </c>
       <c r="R25">
-        <v>10.370370370370299</v>
+        <v>15.061728395061699</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
@@ -11985,7 +11985,7 @@
         <v>24</v>
       </c>
       <c r="R26">
-        <v>15.061728395061699</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
@@ -12005,7 +12005,7 @@
         <v>25</v>
       </c>
       <c r="R27">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
@@ -12025,7 +12025,7 @@
         <v>26</v>
       </c>
       <c r="R28">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
@@ -12045,7 +12045,7 @@
         <v>27</v>
       </c>
       <c r="R29">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
@@ -12065,7 +12065,7 @@
         <v>28</v>
       </c>
       <c r="R30">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.2">
@@ -12085,7 +12085,7 @@
         <v>29</v>
       </c>
       <c r="R31">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
@@ -12105,7 +12105,7 @@
         <v>30</v>
       </c>
       <c r="R32">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
@@ -12125,7 +12125,7 @@
         <v>31</v>
       </c>
       <c r="R33">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.2">
@@ -12145,7 +12145,7 @@
         <v>32</v>
       </c>
       <c r="R34">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.2">
@@ -12165,7 +12165,7 @@
         <v>33</v>
       </c>
       <c r="R35">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.2">
@@ -12185,7 +12185,7 @@
         <v>34</v>
       </c>
       <c r="R36">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.2">
@@ -12205,7 +12205,7 @@
         <v>35</v>
       </c>
       <c r="R37">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.2">
@@ -12225,7 +12225,7 @@
         <v>36</v>
       </c>
       <c r="R38">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.2">
@@ -12245,7 +12245,7 @@
         <v>37</v>
       </c>
       <c r="R39">
-        <v>80</v>
+        <v>84.938271604938194</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.2">
@@ -12265,7 +12265,7 @@
         <v>38</v>
       </c>
       <c r="R40">
-        <v>84.938271604938194</v>
+        <v>89.629629629629605</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.2">
@@ -12285,7 +12285,7 @@
         <v>39</v>
       </c>
       <c r="R41">
-        <v>89.629629629629605</v>
+        <v>93.703703703703695</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.2">
@@ -12305,7 +12305,7 @@
         <v>40</v>
       </c>
       <c r="R42">
-        <v>93.703703703703695</v>
+        <v>96.790123456790099</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.2">
@@ -12325,7 +12325,7 @@
         <v>41</v>
       </c>
       <c r="R43">
-        <v>96.790123456790099</v>
+        <v>98.703703703703695</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.2">
@@ -12345,7 +12345,7 @@
         <v>42</v>
       </c>
       <c r="R44">
-        <v>98.703703703703695</v>
+        <v>99.629629629629605</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.2">
@@ -12365,7 +12365,7 @@
         <v>43</v>
       </c>
       <c r="R45">
-        <v>99.629629629629605</v>
+        <v>99.938271604938194</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.2">
@@ -12385,7 +12385,7 @@
         <v>44</v>
       </c>
       <c r="R46">
-        <v>99.938271604938194</v>
+        <v>100</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.2">
@@ -12645,7 +12645,7 @@
         <v>57</v>
       </c>
       <c r="R59">
-        <v>100</v>
+        <v>99.938271604938194</v>
       </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.2">
@@ -12665,7 +12665,7 @@
         <v>58</v>
       </c>
       <c r="R60">
-        <v>99.938271604938194</v>
+        <v>99.629629629629605</v>
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.2">
@@ -12685,7 +12685,7 @@
         <v>59</v>
       </c>
       <c r="R61">
-        <v>99.629629629629605</v>
+        <v>98.703703703703695</v>
       </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.2">
@@ -12705,7 +12705,7 @@
         <v>60</v>
       </c>
       <c r="R62">
-        <v>98.703703703703695</v>
+        <v>96.790123456790099</v>
       </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.2">
@@ -12725,7 +12725,7 @@
         <v>61</v>
       </c>
       <c r="R63">
-        <v>96.790123456790099</v>
+        <v>93.703703703703695</v>
       </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.2">
@@ -12745,7 +12745,7 @@
         <v>62</v>
       </c>
       <c r="R64">
-        <v>93.703703703703695</v>
+        <v>89.629629629629605</v>
       </c>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.2">
@@ -12765,7 +12765,7 @@
         <v>63</v>
       </c>
       <c r="R65">
-        <v>89.629629629629605</v>
+        <v>84.938271604938194</v>
       </c>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.2">
@@ -12785,7 +12785,7 @@
         <v>64</v>
       </c>
       <c r="R66">
-        <v>84.938271604938194</v>
+        <v>80</v>
       </c>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.2">
@@ -12805,7 +12805,7 @@
         <v>65</v>
       </c>
       <c r="R67">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.2">
@@ -12825,7 +12825,7 @@
         <v>66</v>
       </c>
       <c r="R68">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.2">
@@ -12845,7 +12845,7 @@
         <v>67</v>
       </c>
       <c r="R69">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.2">
@@ -12865,7 +12865,7 @@
         <v>68</v>
       </c>
       <c r="R70">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.2">
@@ -12885,7 +12885,7 @@
         <v>69</v>
       </c>
       <c r="R71">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.2">
@@ -12905,7 +12905,7 @@
         <v>70</v>
       </c>
       <c r="R72">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.2">
@@ -12925,7 +12925,7 @@
         <v>71</v>
       </c>
       <c r="R73">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.2">
@@ -12945,7 +12945,7 @@
         <v>72</v>
       </c>
       <c r="R74">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.2">
@@ -12965,7 +12965,7 @@
         <v>73</v>
       </c>
       <c r="R75">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.2">
@@ -12985,7 +12985,7 @@
         <v>74</v>
       </c>
       <c r="R76">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.2">
@@ -13005,7 +13005,7 @@
         <v>75</v>
       </c>
       <c r="R77">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.2">
@@ -13025,7 +13025,7 @@
         <v>76</v>
       </c>
       <c r="R78">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.2">
@@ -13045,7 +13045,7 @@
         <v>77</v>
       </c>
       <c r="R79">
-        <v>20</v>
+        <v>15.061728395061699</v>
       </c>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.2">
@@ -13065,7 +13065,7 @@
         <v>78</v>
       </c>
       <c r="R80">
-        <v>15.061728395061699</v>
+        <v>10.370370370370299</v>
       </c>
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.2">
@@ -13085,7 +13085,7 @@
         <v>79</v>
       </c>
       <c r="R81">
-        <v>10.370370370370299</v>
+        <v>6.2962962962962896</v>
       </c>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.2">
@@ -13105,7 +13105,7 @@
         <v>80</v>
       </c>
       <c r="R82">
-        <v>6.2962962962962896</v>
+        <v>3.2098765432098699</v>
       </c>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.2">
@@ -13125,7 +13125,7 @@
         <v>81</v>
       </c>
       <c r="R83">
-        <v>3.2098765432098699</v>
+        <v>1.2962962962962901</v>
       </c>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.2">
@@ -13145,7 +13145,7 @@
         <v>82</v>
       </c>
       <c r="R84">
-        <v>1.2962962962962901</v>
+        <v>0.37037037037037002</v>
       </c>
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.2">
@@ -13165,7 +13165,7 @@
         <v>83</v>
       </c>
       <c r="R85">
-        <v>0.37037037037037002</v>
+        <v>6.1728395061728399E-2</v>
       </c>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.2">
@@ -13185,7 +13185,7 @@
         <v>84</v>
       </c>
       <c r="R86">
-        <v>6.1728395061728399E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.2">

--- a/exercises/1.44-smoothing.xlsx
+++ b/exercises/1.44-smoothing.xlsx
@@ -824,11 +824,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="191124136"/>
-        <c:axId val="191124528"/>
+        <c:axId val="160518280"/>
+        <c:axId val="160516712"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="191124136"/>
+        <c:axId val="160518280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -886,13 +886,13 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="191124528"/>
+        <c:crossAx val="160516712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:minorUnit val="5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="191124528"/>
+        <c:axId val="160516712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -949,7 +949,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="191124136"/>
+        <c:crossAx val="160518280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1732,11 +1732,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="191123744"/>
-        <c:axId val="191123352"/>
+        <c:axId val="160522200"/>
+        <c:axId val="160524552"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="191123744"/>
+        <c:axId val="160522200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -1794,13 +1794,13 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="191123352"/>
+        <c:crossAx val="160524552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:minorUnit val="5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="191123352"/>
+        <c:axId val="160524552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1857,7 +1857,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="191123744"/>
+        <c:crossAx val="160522200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2676,11 +2676,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="576296152"/>
-        <c:axId val="576295760"/>
+        <c:axId val="160525336"/>
+        <c:axId val="160522592"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="576296152"/>
+        <c:axId val="160525336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -2738,13 +2738,13 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="576295760"/>
+        <c:crossAx val="160522592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:minorUnit val="5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="576295760"/>
+        <c:axId val="160522592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2801,7 +2801,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="576296152"/>
+        <c:crossAx val="160525336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3575,11 +3575,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="576297328"/>
-        <c:axId val="576292624"/>
+        <c:axId val="532529896"/>
+        <c:axId val="532530288"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="576297328"/>
+        <c:axId val="532529896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -3637,13 +3637,13 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="576292624"/>
+        <c:crossAx val="532530288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:minorUnit val="5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="576292624"/>
+        <c:axId val="532530288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3700,7 +3700,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="576297328"/>
+        <c:crossAx val="532529896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4483,11 +4483,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="576301248"/>
-        <c:axId val="576291448"/>
+        <c:axId val="532528720"/>
+        <c:axId val="532529112"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="576301248"/>
+        <c:axId val="532528720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -4545,13 +4545,13 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="576291448"/>
+        <c:crossAx val="532529112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:minorUnit val="5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="576291448"/>
+        <c:axId val="532529112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4608,7 +4608,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="576301248"/>
+        <c:crossAx val="532528720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5427,11 +5427,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="576289096"/>
-        <c:axId val="576300856"/>
+        <c:axId val="532529504"/>
+        <c:axId val="532530680"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="576289096"/>
+        <c:axId val="532529504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -5489,13 +5489,13 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="576300856"/>
+        <c:crossAx val="532530680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:minorUnit val="5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="576300856"/>
+        <c:axId val="532530680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5552,7 +5552,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="576289096"/>
+        <c:crossAx val="532529504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9404,7 +9404,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R102"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R2" sqref="R2:R102"/>
     </sheetView>
   </sheetViews>
@@ -11462,8 +11462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2:R102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
